--- a/SuppXLS/Scen_GasBlending_BGS-H2.xlsx
+++ b/SuppXLS/Scen_GasBlending_BGS-H2.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3B5994-F008-4154-BD42-44A337EF7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15461C90-D856-43B5-A9D2-8CA067C8EDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blending" sheetId="24" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Euro_GBP">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -1775,12 +1772,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,15 +1924,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2A2EC51-9CA1-4070-B325-1585835445EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5CEB33D-6570-40BA-81CA-5D741DCE3AB6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1962,10 +1960,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5CEB33D-6570-40BA-81CA-5D741DCE3AB6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2A2EC51-9CA1-4070-B325-1585835445EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>